--- a/public/import/listBarang/import-list-barang.xlsx
+++ b/public/import/listBarang/import-list-barang.xlsx
@@ -1,35 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Noval\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Office 5\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63108A6-1C17-4C25-935D-591A2F01AB7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{004AED06-6D29-4BC3-BB05-D5592F9A60A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Noval</author>
+    <author>Office 5</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{2DA30BF1-1A7C-4262-8755-2D32572516A9}">
       <text>
         <r>
           <rPr>
@@ -39,7 +46,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Noval:</t>
+          <t>Office 5:</t>
         </r>
         <r>
           <rPr>
@@ -49,7 +56,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Qty order barang PO</t>
+Jumlah yang akan di order</t>
         </r>
       </text>
     </comment>
@@ -63,6 +70,9 @@
     <t>no</t>
   </si>
   <si>
+    <t>kode</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -127,15 +137,12 @@
   </si>
   <si>
     <t>WLP04-P020</t>
-  </si>
-  <si>
-    <t>kode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +221,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -226,7 +233,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -243,9 +250,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -273,14 +280,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -308,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,17 +500,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B00BC06C-10C6-42C5-B348-22B66EE37E42}">
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,10 +517,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,7 +528,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -499,7 +539,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -510,7 +550,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -521,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -532,7 +572,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -543,7 +583,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -554,7 +594,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -565,7 +605,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9">
         <v>2</v>
@@ -576,7 +616,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -587,7 +627,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -598,7 +638,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -609,7 +649,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -620,7 +660,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2</v>
@@ -631,7 +671,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -642,7 +682,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -653,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C17">
         <v>2</v>
@@ -664,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -675,7 +715,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -686,7 +726,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C20">
         <v>2</v>
@@ -697,7 +737,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -708,7 +748,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C22">
         <v>2</v>
